--- a/Santrauka/HTML.xlsx
+++ b/Santrauka/HTML.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="28455" windowHeight="12255"/>
+    <workbookView xWindow="360" yWindow="336" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>navigacijos tegas</t>
   </si>
@@ -3257,6 +3257,12 @@
   </si>
   <si>
     <t>family style</t>
+  </si>
+  <si>
+    <t>heding</t>
+  </si>
+  <si>
+    <t>pagrindinis info langas</t>
   </si>
 </sst>
 </file>
@@ -3659,16 +3665,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C32"/>
+  <dimension ref="A3:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+    <col min="1" max="1" width="53.5546875" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -3799,6 +3805,14 @@
       </c>
       <c r="C32" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3812,17 +3826,17 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="54.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4021,10 +4035,10 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="79.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="79.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
